--- a/data_excel/288.xlsx
+++ b/data_excel/288.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>有</t>
   </si>
@@ -130,6 +130,20 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +173,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -202,14 +224,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -512,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -618,14 +653,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -634,107 +669,129 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data_excel/288.xlsx
+++ b/data_excel/288.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>有</t>
   </si>
@@ -130,20 +130,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>虛詞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,14 +159,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -224,27 +202,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -547,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C13"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -653,14 +618,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -669,129 +634,107 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data_excel/288.xlsx
+++ b/data_excel/288.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>有</t>
   </si>
@@ -117,7 +117,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nv</t>
+    <t>被</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,25 +139,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>虛詞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +546,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -654,13 +650,13 @@
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -674,10 +670,10 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -734,13 +730,13 @@
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -748,10 +744,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/288.xlsx
+++ b/data_excel/288.xlsx
@@ -42,9 +42,6 @@
     <t>還有</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>隻</t>
   </si>
   <si>
@@ -140,6 +137,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -231,16 +232,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -546,12 +563,12 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -568,10 +585,10 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -579,216 +596,216 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="F2" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
